--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="21600" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="5320" yWindow="2700" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -200,6 +200,34 @@
   </si>
   <si>
     <t>这是英文:您已被%s联盟踢出</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠诚值奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:您已被%s联盟踢出</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:忠诚值奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>giveLoyaltyToAllianceMemberTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>giveLoyaltyToAllianceMemberContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s联盟向你发放了%d点忠诚值奖励，请再接再厉！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:%s联盟向你发放了%d点忠诚值奖励，请再接再厉！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +385,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="124">
+  <cellStyleXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -372,6 +400,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -502,7 +546,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="124">
+  <cellStyles count="140">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -567,6 +611,14 @@
     <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -624,6 +676,14 @@
     <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1073,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1332,7 +1392,29 @@
         <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="2700" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="10200" yWindow="3160" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -228,6 +228,30 @@
   </si>
   <si>
     <t>这是英文:%s联盟向你发放了%d点忠诚值奖励，请再接再厉！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于您在联盟战中击杀数第一,系统奖励您%d金龙币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightKillFirstRewardContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightKillFirstRewardTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战最高击杀奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:联盟战最高击杀奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:由于您在联盟战中击杀数第一,系统奖励您%d金龙币</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +409,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="140">
+  <cellStyleXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -400,6 +424,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -546,7 +576,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="140">
+  <cellStyles count="146">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -619,6 +649,9 @@
     <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="136" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -684,6 +717,9 @@
     <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1133,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1415,6 +1451,28 @@
       </c>
       <c r="C21" s="1" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="3160" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="5340" yWindow="2600" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -1177,7 +1177,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="37.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="20" customHeight="1">

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2600" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="820" yWindow="120" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -98,108 +98,81 @@
     <t>AllianceKickMemberOffContent</t>
   </si>
   <si>
+    <t>加入联盟邀请被拒绝</t>
+  </si>
+  <si>
+    <t>加入联盟邀请被接受</t>
+  </si>
+  <si>
+    <t>这是英文:联盟申请审核通过</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:加入联盟邀请被拒绝</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:加入联盟邀请被接受</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:忠诚值奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>giveLoyaltyToAllianceMemberTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>giveLoyaltyToAllianceMemberContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:%s联盟向你发放了%d点忠诚值奖励，请再接再厉！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightKillFirstRewardContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightKillFirstRewardTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>联盟战最高击杀奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:联盟战最高击杀奖励</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>联盟申请被拒绝</t>
-  </si>
-  <si>
-    <t>亲爱的,您对 %s 联盟的申请被无情的拒绝了</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>联盟申请审核通过</t>
-  </si>
-  <si>
-    <t>恭喜,您对 %s 联盟的申请审核通过了</t>
-  </si>
-  <si>
-    <t>加入联盟邀请被拒绝</t>
-  </si>
-  <si>
-    <t>亲爱的,%s 拒绝了您对他加入联盟的邀请</t>
-  </si>
-  <si>
-    <t>加入联盟邀请被接受</t>
-  </si>
-  <si>
-    <t>恭喜,%s 接受了您对他加入联盟的邀请</t>
-  </si>
-  <si>
-    <t>%s&lt;%s&gt;帮您抵御了一次突袭</t>
-  </si>
-  <si>
-    <t>%s&lt;%s&gt;帮您抵御了一次进攻</t>
-  </si>
-  <si>
-    <t>我方联盟刚刚发起了一次联盟战</t>
-  </si>
-  <si>
-    <t>%s 联盟对我方联盟发起了一次联盟战</t>
-  </si>
-  <si>
-    <t>您在联盟的职位被调整</t>
-  </si>
-  <si>
-    <t>您的职位由%s调整为%s</t>
-  </si>
-  <si>
-    <t>您已被%s联盟踢出</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>这是英文:联盟申请被拒绝</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:亲爱的,您对 %s 联盟的申请被无情的拒绝了</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:联盟申请审核通过</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:恭喜,您对 %s 联盟的申请审核通过了</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:加入联盟邀请被拒绝</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:亲爱的,%s 拒绝了您对他加入联盟的邀请</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:加入联盟邀请被接受</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:恭喜,%s 接受了您对他加入联盟的邀请</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:%s&lt;%s&gt;帮您抵御了一次突袭</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:%s&lt;%s&gt;帮您抵御了一次进攻</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:我方联盟刚刚发起了一次联盟战</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:%s 联盟对我方联盟发起了一次联盟战</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:您在联盟的职位被调整</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:您的职位由%s调整为%s</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:您已被%s联盟踢出</t>
+    <t>我方联盟刚刚发起了一场联盟会战，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟刚刚发起了一场联盟会战，，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s 联盟向我方发起了一场联盟会战，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:%s 联盟对我方发起了一场联盟会战，请做好战斗准备！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -207,51 +180,161 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:您已被%s联盟踢出</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:忠诚值奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>giveLoyaltyToAllianceMemberTitle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>giveLoyaltyToAllianceMemberContent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>%s联盟向你发放了%d点忠诚值奖励，请再接再厉！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:%s联盟向你发放了%d点忠诚值奖励，请再接再厉！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于您在联盟战中击杀数第一,系统奖励您%d金龙币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllianceFightKillFirstRewardContent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllianceFightKillFirstRewardTitle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>联盟战最高击杀奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:联盟战最高击杀奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:由于您在联盟战中击杀数第一,系统奖励您%d金龙币</t>
+    <t>主人,你对 %s 联盟的申请被无情的拒绝了。</t>
+  </si>
+  <si>
+    <t>这是英文:主人,你对 %s 联盟的申请被无情的拒绝了。</t>
+  </si>
+  <si>
+    <t>恭喜,你对 %s 联盟的申请审核通过了。</t>
+  </si>
+  <si>
+    <t>这是英文:恭喜,你对 %s 联盟的申请审核通过了。</t>
+  </si>
+  <si>
+    <t>恭喜,%s 接受了你对他加入联盟的邀请。</t>
+  </si>
+  <si>
+    <t>这是英文:恭喜,%s 接受了你对他加入联盟的邀请。</t>
+  </si>
+  <si>
+    <t>[%s]%s帮你抵御了一次突袭</t>
+  </si>
+  <si>
+    <t>这是英文[%s]%s帮你抵御了一次突袭</t>
+  </si>
+  <si>
+    <t>[%s]%s帮你抵御了一次突袭。</t>
+  </si>
+  <si>
+    <t>这是英文:[%s]%s帮你抵御了一次突袭。</t>
+  </si>
+  <si>
+    <t>[%s]%s帮你抵御了一次进攻</t>
+  </si>
+  <si>
+    <t>这是英文:[%s]%s帮你抵御了一次进攻</t>
+  </si>
+  <si>
+    <t>[%s]%s帮你抵御了一次进攻。</t>
+  </si>
+  <si>
+    <t>这是英文:[%s]%s帮你抵御了一次进攻。</t>
+  </si>
+  <si>
+    <t>你的联盟职位被调整</t>
+  </si>
+  <si>
+    <t>这是英文:你的联盟职位被调整</t>
+  </si>
+  <si>
+    <t>你的职位由%s调整为%s。</t>
+  </si>
+  <si>
+    <t>这是英文:你的职位由%s调整为%s。</t>
+  </si>
+  <si>
+    <t>你已被%s联盟踢出</t>
+  </si>
+  <si>
+    <t>这是英文:你已被%s联盟踢出</t>
+  </si>
+  <si>
+    <t>你已被%s联盟踢出。</t>
+  </si>
+  <si>
+    <t>这是英文:你已被%s联盟踢出。</t>
+  </si>
+  <si>
+    <t>聯盟申請被拒絕</t>
+  </si>
+  <si>
+    <t>聯盟申請審核通過</t>
+  </si>
+  <si>
+    <t>加入聯盟邀請被拒絕</t>
+  </si>
+  <si>
+    <t>加入聯盟邀請被接受</t>
+  </si>
+  <si>
+    <t>我方聯盟剛剛發起了壹場聯盟會戰，請做好戰鬥準備！</t>
+  </si>
+  <si>
+    <t>%s 聯盟向我方發起了壹場聯盟會戰，請做好戰鬥準備！</t>
+  </si>
+  <si>
+    <t>忠誠值獎勵</t>
+  </si>
+  <si>
+    <t>聯盟戰最高擊殺獎勵</t>
+  </si>
+  <si>
+    <t>主人,你對 %s 聯盟的申請被無情的拒絕了。</t>
+  </si>
+  <si>
+    <t>恭喜,你對 %s 聯盟的申請審核通過了。</t>
+  </si>
+  <si>
+    <t>恭喜,%s 接受了你對他加入聯盟的邀請。</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了壹次突襲</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了壹次突襲。</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了壹次進攻</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了壹次進攻。</t>
+  </si>
+  <si>
+    <t>你的聯盟職位被調整</t>
+  </si>
+  <si>
+    <t>你的職位由%s調整為%s。</t>
+  </si>
+  <si>
+    <t>你已被%s聯盟踢出</t>
+  </si>
+  <si>
+    <t>你已被%s聯盟踢出。</t>
+  </si>
+  <si>
+    <t>%s聯盟向你發放了%d點忠誠值獎勵，請再接再厲！</t>
+  </si>
+  <si>
+    <t>主人,%s 拒绝了你对他加入联盟的邀请。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:主人,%s 拒绝了你对他加入联盟的邀请。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主人,%s 拒絕了你對他加入聯盟的邀請。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_tw</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在联盟会战中奋勇杀敌，成为“头号杀手”,系统已奖励%d金龙币到你的账户中。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:你在联盟会战中奋勇杀敌，成为“头号杀手”,系统已奖励%d金龙币到你的账户中。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在聯盟會戰中奮勇殺敵，成為“頭號殺手”,系統已獎勵%d金龍幣到你的賬戶中。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +492,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="146">
+  <cellStyleXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -424,6 +507,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -576,7 +665,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="146">
+  <cellStyles count="152">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -652,6 +741,9 @@
     <cellStyle name="超链接" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="142" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -720,6 +812,9 @@
     <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1171,16 +1266,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1"/>
-    <col min="2" max="2" width="37.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="20.6640625" style="1"/>
+    <col min="2" max="2" width="62.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="20" customHeight="1">
@@ -1193,6 +1289,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -1203,10 +1302,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
@@ -1214,10 +1316,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1229,10 +1334,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
+      <c r="D4" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -1244,10 +1352,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1259,10 +1370,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1274,10 +1388,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1289,10 +1406,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1304,10 +1424,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1319,10 +1442,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1334,10 +1460,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1347,10 +1476,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1362,10 +1494,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
@@ -1373,10 +1508,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
@@ -1384,10 +1522,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
@@ -1395,87 +1536,111 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1">
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>90</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -160,22 +160,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>我方联盟刚刚发起了一场联盟会战，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:我方联盟刚刚发起了一场联盟会战，，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>%s 联盟向我方发起了一场联盟会战，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:%s 联盟对我方发起了一场联盟会战，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>忠诚值奖励</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -262,12 +246,6 @@
     <t>加入聯盟邀請被接受</t>
   </si>
   <si>
-    <t>我方聯盟剛剛發起了壹場聯盟會戰，請做好戰鬥準備！</t>
-  </si>
-  <si>
-    <t>%s 聯盟向我方發起了壹場聯盟會戰，請做好戰鬥準備！</t>
-  </si>
-  <si>
     <t>忠誠值獎勵</t>
   </si>
   <si>
@@ -335,6 +313,30 @@
   </si>
   <si>
     <t>你在聯盟會戰中奮勇殺敵，成為“頭號殺手”,系統已獎勵%d金龍幣到你的賬戶中。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s联盟向我方发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方联盟发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方聯盟剛剛發起了壹場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟刚刚发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:%s联盟对我方发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s聯盟向我方發起了壹場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1267,7 +1269,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1290,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1308,7 +1310,7 @@
         <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
@@ -1316,13 +1318,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1340,7 +1342,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -1352,13 +1354,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1376,7 +1378,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1388,13 +1390,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1412,7 +1414,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1424,13 +1426,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1442,13 +1444,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1460,13 +1462,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1476,13 +1478,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1494,13 +1496,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
@@ -1508,13 +1510,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
@@ -1522,13 +1524,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
@@ -1536,13 +1538,13 @@
         <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -1550,13 +1552,13 @@
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -1564,13 +1566,13 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -1578,13 +1580,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -1592,13 +1594,13 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -1606,13 +1608,13 @@
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -1626,7 +1628,7 @@
         <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
@@ -1634,13 +1636,13 @@
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="120" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="1220" yWindow="120" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -261,18 +261,6 @@
     <t>恭喜,%s 接受了你對他加入聯盟的邀請。</t>
   </si>
   <si>
-    <t>[%s]%s幫你抵禦了壹次突襲</t>
-  </si>
-  <si>
-    <t>[%s]%s幫你抵禦了壹次突襲。</t>
-  </si>
-  <si>
-    <t>[%s]%s幫你抵禦了壹次進攻</t>
-  </si>
-  <si>
-    <t>[%s]%s幫你抵禦了壹次進攻。</t>
-  </si>
-  <si>
     <t>你的聯盟職位被調整</t>
   </si>
   <si>
@@ -324,10 +312,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>我方聯盟剛剛發起了壹場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>这是英文:我方联盟刚刚发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -336,8 +320,22 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>%s聯盟向我方發起了壹場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>[%s]%s幫你抵禦了一次突襲。</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了一次進攻</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了一次進攻。</t>
+  </si>
+  <si>
+    <t>我方聯盟剛剛發起了一場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
+  </si>
+  <si>
+    <t>%s聯盟向我方發起了一場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了一次突襲</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1267,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1292,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1390,13 +1388,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1450,7 +1448,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1468,7 +1466,7 @@
         <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1484,7 +1482,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1502,7 +1500,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
@@ -1510,13 +1508,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
@@ -1524,13 +1522,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
@@ -1544,7 +1542,7 @@
         <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -1558,7 +1556,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -1572,7 +1570,7 @@
         <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -1586,7 +1584,7 @@
         <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -1614,7 +1612,7 @@
         <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
@@ -1636,13 +1634,13 @@
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="120" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="5880" yWindow="1820" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -79,13 +79,6 @@
     <t>HelpDefenceAttackContent</t>
   </si>
   <si>
-    <t>AttackAllianceMessage</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllianceBeAttackedMessage</t>
-  </si>
-  <si>
     <t>AllianceTitleBeModifyedTitle</t>
   </si>
   <si>
@@ -296,46 +289,104 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>你在聯盟會戰中奮勇殺敵，成為“頭號殺手”,系統已獎勵%d金龍幣到你的賬戶中。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s联盟向我方发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方联盟发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟刚刚发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了一次突襲。</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了一次進攻</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了一次進攻。</t>
+  </si>
+  <si>
+    <t>我方聯盟剛剛發起了一場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
+  </si>
+  <si>
+    <t>%s聯盟向我方發起了一場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了一次突襲</t>
+  </si>
+  <si>
+    <t>AttackAlliancePrepare</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceBeAttackedPrepare</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackAllianceStart</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceBeAttackedStart</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s联盟对我方联盟发起的联盟战已经开始,战斗吧,骚年!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方联盟与%s联盟的联盟战已经开始,战斗吧,骚年!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:%s联盟对我方发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟与%s联盟的联盟战已经开始,战斗吧,骚年!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:%s联盟对我方联盟发起的联盟战已经开始,战斗吧,骚年!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceShrineEventStart</t>
+  </si>
+  <si>
     <t>这是英文:你在联盟会战中奋勇杀敌，成为“头号杀手”,系统已奖励%d金龙币到你的账户中。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>你在聯盟會戰中奮勇殺敵，成為“頭號殺手”,系統已獎勵%d金龍幣到你的賬戶中。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>%s联盟向我方发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方联盟发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:我方联盟刚刚发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:%s联盟对我方发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[%s]%s幫你抵禦了一次突襲。</t>
-  </si>
-  <si>
-    <t>[%s]%s幫你抵禦了一次進攻</t>
-  </si>
-  <si>
-    <t>[%s]%s幫你抵禦了一次進攻。</t>
-  </si>
-  <si>
-    <t>我方聯盟剛剛發起了一場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
-  </si>
-  <si>
-    <t>%s聯盟向我方發起了一場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
-  </si>
-  <si>
-    <t>[%s]%s幫你抵禦了一次突襲</t>
+    <t>CityBeAttacked</t>
+  </si>
+  <si>
+    <t>主淫,您的城市即将被攻打,请注意啦</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:主淫,您的城市即将被攻打,请注意啦</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方联盟激活了一场圣地战,战斗将于20分钟后开始,请做好战斗准备</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟激活了圣地战,战斗将于20分钟后开始,请做好战斗准备</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方联盟激活了圣地战,战斗将于20分钟后开始,请做好战斗准备</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -492,7 +543,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="152">
+  <cellStyleXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -507,6 +558,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -665,7 +760,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="152">
+  <cellStyles count="196">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -744,6 +839,28 @@
     <cellStyle name="超链接" xfId="146" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="148" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -815,6 +932,28 @@
     <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1264,15 +1403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1"/>
+    <col min="1" max="1" width="27.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="62.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -1290,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1302,13 +1441,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
@@ -1316,13 +1455,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1334,13 +1473,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -1352,13 +1491,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1370,13 +1509,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1388,13 +1527,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1406,13 +1545,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1424,13 +1563,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1442,13 +1581,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1460,13 +1599,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1476,13 +1615,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1494,153 +1633,209 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>81</v>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="1820" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="1320" yWindow="260" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -293,18 +293,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>%s联盟向我方发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方联盟发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:我方联盟刚刚发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>[%s]%s幫你抵禦了一次突襲。</t>
   </si>
   <si>
@@ -314,12 +302,6 @@
     <t>[%s]%s幫你抵禦了一次進攻。</t>
   </si>
   <si>
-    <t>我方聯盟剛剛發起了一場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
-  </si>
-  <si>
-    <t>%s聯盟向我方發起了一場聯盟會戰，戰鬥將於20分鐘後開始，請做好戰鬥準備！</t>
-  </si>
-  <si>
     <t>[%s]%s幫你抵禦了一次突襲</t>
   </si>
   <si>
@@ -339,26 +321,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>%s联盟对我方联盟发起的联盟战已经开始,战斗吧,骚年!</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方联盟与%s联盟的联盟战已经开始,战斗吧,骚年!</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:%s联盟对我方发起了一场联盟会战，战斗将于20分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:我方联盟与%s联盟的联盟战已经开始,战斗吧,骚年!</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:%s联盟对我方联盟发起的联盟战已经开始,战斗吧,骚年!</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>AllianceShrineEventStart</t>
   </si>
   <si>
@@ -369,23 +331,64 @@
     <t>CityBeAttacked</t>
   </si>
   <si>
-    <t>主淫,您的城市即将被攻打,请注意啦</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:主淫,您的城市即将被攻打,请注意啦</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方联盟激活了一场圣地战,战斗将于20分钟后开始,请做好战斗准备</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:我方联盟激活了圣地战,战斗将于20分钟后开始,请做好战斗准备</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方联盟激活了圣地战,战斗将于20分钟后开始,请做好战斗准备</t>
+    <t>我方联盟发起了一场联盟会战，战斗将于15分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s联盟向我方发起了一场联盟会战，战斗将于15分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟刚刚发起了一场联盟会战，战斗将于15分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:%s联盟对我方发起了一场联盟会战，战斗将于15分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方聯盟剛剛發起了一場聯盟會戰，戰鬥將於15分鐘後開始，請做好戰鬥準備！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s聯盟向我方發起了一場聯盟會戰，戰鬥將於15分鐘後開始，請做好戰鬥準備！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>与%s联盟的战斗已经开始！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:与%s联盟的战斗已经开始！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:与%s联盟的战斗已经开始！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>與%s聯盟的戰鬥已經開始！</t>
+  </si>
+  <si>
+    <t>这是英文:主人，你的城市即将被攻打！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主人，你的城市即將被攻打！</t>
+  </si>
+  <si>
+    <t>我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方聯盟激活了一場聖地戰,並將於20分鐘後結束,請做好出兵準備！</t>
+  </si>
+  <si>
+    <t>主人，你的城市即将被攻打！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +546,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="196">
+  <cellStyleXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -558,6 +561,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -760,7 +773,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="196">
+  <cellStyles count="206">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -861,6 +874,11 @@
     <cellStyle name="超链接" xfId="190" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="192" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -954,6 +972,11 @@
     <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1405,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1587,7 +1610,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1605,7 +1628,7 @@
         <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -1621,7 +1644,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1639,63 +1662,63 @@
         <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -1804,7 +1827,7 @@
         <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>78</v>
@@ -1812,7 +1835,7 @@
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>102</v>
@@ -1826,16 +1849,16 @@
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="260" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="4040" yWindow="1100" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -370,25 +370,78 @@
     <t>與%s聯盟的戰鬥已經開始！</t>
   </si>
   <si>
+    <t>主人，你的城市即將被攻打！</t>
+  </si>
+  <si>
+    <t>我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方聯盟激活了一場聖地戰,並將於20分鐘後結束,請做好出兵準備！</t>
+  </si>
+  <si>
+    <t>主人，你的城市即将被攻打！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>这是英文:主人，你的城市即将被攻打！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>主人，你的城市即將被攻打！</t>
-  </si>
-  <si>
-    <t>我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方聯盟激活了一場聖地戰,並將於20分鐘後結束,請做好出兵準備！</t>
-  </si>
-  <si>
-    <t>主人，你的城市即将被攻打！</t>
+    <t>AllianceFightSuccess</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightFailed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的联盟在联盟会战中战胜了[%s]%s联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的联盟在联盟会战中落败于[%s]%s联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:你的联盟在联盟会战中战胜了[%s]%s联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:你的联盟在联盟会战中落败于[%s]%s联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceMovedContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceMovedTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的联盟领地已被迁移</t>
+  </si>
+  <si>
+    <t>联盟会战结果</t>
+  </si>
+  <si>
+    <t>你所在的联盟领地已由第%d圈迁移至第%d圈</t>
+  </si>
+  <si>
+    <t>你所在的联盟领地已由第%d圈迁移至第%d圈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:你所在的联盟领地已由第%d圈迁移至第%d圈</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +599,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="206">
+  <cellStyleXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -561,6 +614,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -773,7 +858,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="206">
+  <cellStyles count="238">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -879,6 +964,22 @@
     <cellStyle name="超链接" xfId="200" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="202" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -977,6 +1078,22 @@
     <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1426,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1838,13 +1955,13 @@
         <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -1852,13 +1969,83 @@
         <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>101</v>
+    </row>
+    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="1100" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="6980" yWindow="2440" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="134">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -442,6 +442,62 @@
   </si>
   <si>
     <t>这是英文:你所在的联盟领地已由第%d圈迁移至第%d圈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行军失败</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackMissTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackMissContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackProtectedTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackProtectedContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)已不存在（迁移或消失），部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectFailedTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectFailedContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)正处于保护状态，无法攻打，部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你前往采集的[%s]%s(%d,%d)已被盟友占领，部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpDefenceFailedTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpDefenceFailedContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)协防数量已达上限，无法继续协防，部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)已被盟友占领，部队已原路返回</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +655,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="238">
+  <cellStyleXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -614,6 +670,80 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -858,7 +988,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="238">
+  <cellStyles count="312">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -980,6 +1110,43 @@
     <cellStyle name="超链接" xfId="232" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="234" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1094,6 +1261,43 @@
     <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1543,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2048,6 +2252,118 @@
         <v>109</v>
       </c>
     </row>
+    <row r="33" spans="1:4" ht="20" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="20" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="20" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="20" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="20" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="20" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="20" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="133">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -478,10 +478,6 @@
   </si>
   <si>
     <t>[%s]%s(%d,%d)正处于保护状态，无法攻打，部队已原路返回</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你前往采集的[%s]%s(%d,%d)已被盟友占领，部队已原路返回</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -655,7 +651,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="312">
+  <cellStyleXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -670,6 +666,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -988,7 +986,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="312">
+  <cellStyles count="314">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1147,6 +1145,7 @@
     <cellStyle name="超链接" xfId="306" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1298,6 +1297,7 @@
     <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1749,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2327,18 +2327,18 @@
         <v>127</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>120</v>
@@ -2352,16 +2352,16 @@
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6980" yWindow="2440" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="7660" yWindow="2120" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="142">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -370,130 +370,162 @@
     <t>與%s聯盟的戰鬥已經開始！</t>
   </si>
   <si>
+    <t>我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方聯盟激活了一場聖地戰,並將於20分鐘後結束,請做好出兵準備！</t>
+  </si>
+  <si>
+    <t>主人，你的城市即将被攻打！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:主人，你的城市即将被攻打！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightSuccess</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightFailed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的联盟在联盟会战中战胜了[%s]%s联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的联盟在联盟会战中落败于[%s]%s联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:你的联盟在联盟会战中战胜了[%s]%s联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:你的联盟在联盟会战中落败于[%s]%s联盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceMovedContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceMovedTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllianceFightTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的联盟领地已被迁移</t>
+  </si>
+  <si>
+    <t>联盟会战结果</t>
+  </si>
+  <si>
+    <t>你所在的联盟领地已由第%d圈迁移至第%d圈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是英文:你所在的联盟领地已由第%d圈迁移至第%d圈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行军失败</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackMissTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackMissContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackProtectedTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackProtectedContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)已不存在（迁移或消失），部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectFailedTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectFailedContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)正处于保护状态，无法攻打，部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpDefenceFailedTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpDefenceFailedContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)协防数量已达上限，无法继续协防，部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)已被盟友占领，部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯盟會戰結果</t>
+  </si>
+  <si>
+    <t>行軍失敗</t>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)已不存在（遷移或消失），部隊已原路返回</t>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)正處於保護狀態，無法攻打，部隊已原路返回</t>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)已被盟友占領，部隊已原路返回</t>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)協防數量已達上限，無法繼續協防，部隊已原路返回</t>
+  </si>
+  <si>
     <t>主人，你的城市即將被攻打！</t>
-  </si>
-  <si>
-    <t>我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方聯盟激活了一場聖地戰,並將於20分鐘後結束,請做好出兵準備！</t>
-  </si>
-  <si>
-    <t>主人，你的城市即将被攻打！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:主人，你的城市即将被攻打！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllianceFightSuccess</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllianceFightFailed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的联盟在联盟会战中战胜了[%s]%s联盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的联盟在联盟会战中落败于[%s]%s联盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:你的联盟在联盟会战中战胜了[%s]%s联盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:你的联盟在联盟会战中落败于[%s]%s联盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllianceMovedContent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllianceMovedTitle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllianceFightTitle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的联盟领地已被迁移</t>
-  </si>
-  <si>
-    <t>联盟会战结果</t>
-  </si>
-  <si>
-    <t>你所在的联盟领地已由第%d圈迁移至第%d圈</t>
-  </si>
-  <si>
-    <t>你所在的联盟领地已由第%d圈迁移至第%d圈</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:你所在的联盟领地已由第%d圈迁移至第%d圈</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>行军失败</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackMissTitle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackMissContent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackProtectedTitle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackProtectedContent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[%s]%s(%d,%d)已不存在（迁移或消失），部队已原路返回</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CollectFailedTitle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CollectFailedContent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[%s]%s(%d,%d)正处于保护状态，无法攻打，部队已原路返回</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>HelpDefenceFailedTitle</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>HelpDefenceFailedContent</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[%s]%s(%d,%d)协防数量已达上限，无法继续协防，部队已原路返回</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[%s]%s(%d,%d)已被盟友占领，部队已原路返回</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的聯盟領地已被遷移</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你所在的聯盟領地已由第%d圈遷移至第%d圈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的聯盟在聯盟會戰中戰勝了[%s]%s聯盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的聯盟在聯盟會戰中落敗於[%s]%s聯盟</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +683,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="314">
+  <cellStyleXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -666,6 +698,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -986,7 +1024,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="314">
+  <cellStyles count="320">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1146,6 +1184,9 @@
     <cellStyle name="超链接" xfId="308" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="310" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1298,6 +1339,9 @@
     <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1749,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2159,13 +2203,13 @@
         <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -2173,195 +2217,195 @@
         <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="2120" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="7560" yWindow="22560" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -97,22 +97,6 @@
     <t>加入联盟邀请被接受</t>
   </si>
   <si>
-    <t>这是英文:联盟申请审核通过</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:加入联盟邀请被拒绝</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:加入联盟邀请被接受</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:忠诚值奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>giveLoyaltyToAllianceMemberTitle</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -121,10 +105,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:%s联盟向你发放了%d点忠诚值奖励，请再接再厉！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>AllianceFightKillFirstRewardContent</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -137,10 +117,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:联盟战最高击杀奖励</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>联盟申请被拒绝</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -149,10 +125,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:联盟申请被拒绝</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>忠诚值奖励</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -164,69 +136,30 @@
     <t>主人,你对 %s 联盟的申请被无情的拒绝了。</t>
   </si>
   <si>
-    <t>这是英文:主人,你对 %s 联盟的申请被无情的拒绝了。</t>
-  </si>
-  <si>
     <t>恭喜,你对 %s 联盟的申请审核通过了。</t>
   </si>
   <si>
-    <t>这是英文:恭喜,你对 %s 联盟的申请审核通过了。</t>
-  </si>
-  <si>
     <t>恭喜,%s 接受了你对他加入联盟的邀请。</t>
   </si>
   <si>
-    <t>这是英文:恭喜,%s 接受了你对他加入联盟的邀请。</t>
-  </si>
-  <si>
-    <t>[%s]%s帮你抵御了一次突袭</t>
-  </si>
-  <si>
-    <t>这是英文[%s]%s帮你抵御了一次突袭</t>
-  </si>
-  <si>
-    <t>[%s]%s帮你抵御了一次突袭。</t>
-  </si>
-  <si>
-    <t>这是英文:[%s]%s帮你抵御了一次突袭。</t>
-  </si>
-  <si>
     <t>[%s]%s帮你抵御了一次进攻</t>
   </si>
   <si>
-    <t>这是英文:[%s]%s帮你抵御了一次进攻</t>
-  </si>
-  <si>
     <t>[%s]%s帮你抵御了一次进攻。</t>
   </si>
   <si>
-    <t>这是英文:[%s]%s帮你抵御了一次进攻。</t>
-  </si>
-  <si>
     <t>你的联盟职位被调整</t>
   </si>
   <si>
-    <t>这是英文:你的联盟职位被调整</t>
-  </si>
-  <si>
     <t>你的职位由%s调整为%s。</t>
   </si>
   <si>
-    <t>这是英文:你的职位由%s调整为%s。</t>
-  </si>
-  <si>
     <t>你已被%s联盟踢出</t>
   </si>
   <si>
-    <t>这是英文:你已被%s联盟踢出</t>
-  </si>
-  <si>
     <t>你已被%s联盟踢出。</t>
   </si>
   <si>
-    <t>这是英文:你已被%s联盟踢出。</t>
-  </si>
-  <si>
     <t>聯盟申請被拒絕</t>
   </si>
   <si>
@@ -273,10 +206,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:主人,%s 拒绝了你对他加入联盟的邀请。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>主人,%s 拒絕了你對他加入聯盟的邀請。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -324,10 +253,6 @@
     <t>AllianceShrineEventStart</t>
   </si>
   <si>
-    <t>这是英文:你在联盟会战中奋勇杀敌，成为“头号杀手”,系统已奖励%d金龙币到你的账户中。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>CityBeAttacked</t>
   </si>
   <si>
@@ -339,14 +264,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:我方联盟刚刚发起了一场联盟会战，战斗将于15分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:%s联盟对我方发起了一场联盟会战，战斗将于15分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>我方聯盟剛剛發起了一場聯盟會戰，戰鬥將於15分鐘後開始，請做好戰鬥準備！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -359,14 +276,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:与%s联盟的战斗已经开始！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:与%s联盟的战斗已经开始！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>與%s聯盟的戰鬥已經開始！</t>
   </si>
   <si>
@@ -374,10 +283,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:我方联盟激活了一场圣地战,并将于20分钟后结束,请做好出兵准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>我方聯盟激活了一場聖地戰,並將於20分鐘後結束,請做好出兵準備！</t>
   </si>
   <si>
@@ -385,10 +290,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:主人，你的城市即将被攻打！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>AllianceFightSuccess</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -405,14 +306,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:你的联盟在联盟会战中战胜了[%s]%s联盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是英文:你的联盟在联盟会战中落败于[%s]%s联盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>AllianceMovedContent</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -435,10 +328,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>这是英文:你所在的联盟领地已由第%d圈迁移至第%d圈</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>行军失败</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -503,29 +392,178 @@
     <t>[%s]%s(%d,%d)正處於保護狀態，無法攻打，部隊已原路返回</t>
   </si>
   <si>
+    <t>[%s]%s(%d,%d)協防數量已達上限，無法繼續協防，部隊已原路返回</t>
+  </si>
+  <si>
+    <t>主人，你的城市即將被攻打！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的聯盟領地已被遷移</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你所在的聯盟領地已由第%d圈遷移至第%d圈</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的聯盟在聯盟會戰中戰勝了[%s]%s聯盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的聯盟在聯盟會戰中落敗於[%s]%s聯盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>[%s]%s(%d,%d)已被盟友占領，部隊已原路返回</t>
-  </si>
-  <si>
-    <t>[%s]%s(%d,%d)協防數量已達上限，無法繼續協防，部隊已原路返回</t>
-  </si>
-  <si>
-    <t>主人，你的城市即將被攻打！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的聯盟領地已被遷移</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你所在的聯盟領地已由第%d圈遷移至第%d圈</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的聯盟在聯盟會戰中戰勝了[%s]%s聯盟</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的聯盟在聯盟會戰中落敗於[%s]%s聯盟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your application was approved</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your invitation was rejected</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your invitation was accepted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s帮你抵御了一次侦察</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s帮你抵御了一次侦察。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Alliance has declared a war, and it will start in 15 minutes, prepare for the battle!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s has declared a war to your Alliance, and it will start in 15 minutes, prepare for the battle!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>The battle with %s has already begun!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Alliance position has been adjusted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>March failed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loyalty reward</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO.1 Killer prize</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your city is under attack!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Alliance has been migrated</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alliance Battle result</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can't attack [%s]%s(%d,%d) who is under protection, your troop is returning now.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d) is already occupied by your ally, your troop is returning now.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can't help defending [%s]%s(%d,%d) who is full of assist, your troop is returning now.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your application was rejected</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>My lord, %s Alliance has rejected your application.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations! %s Alliance has approved your application.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>My lord, %s has rejected your invitation.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations! %s has accepted your invitation.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s Alliance granted you %s loyalty points for your heroic!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You received %s Dragon Coins as the NO.1 Killer prize in the last Alliance Battle.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Alliance territory has been migrated from round%s to round%s.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s helped you to defend a enemy scout</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s helped you to defend a enemy scout.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s helped you to defend a enemy attack</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s helped you to defend a enemy attack.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Alliance position has been adjusted to %s.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have been kicked out</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d) does not existed(migrated or disappeared), your troop is returning now.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s has defeated your Alliance in the last Alliance Battle.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Alliance has defeated [%s]%s in the last Alliance Battle.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have been kicked out by %s Alliance.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Alliance has activated a Shrine event, and it will end in 20 minutes, go for the war!</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +721,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="320">
+  <cellStyleXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -698,6 +736,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1024,7 +1074,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="320">
+  <cellStyles count="332">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1187,6 +1237,12 @@
     <cellStyle name="超链接" xfId="314" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="316" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1342,6 +1398,12 @@
     <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1793,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1817,7 +1879,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1829,13 +1891,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
@@ -1843,13 +1905,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1861,13 +1923,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -1879,13 +1941,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1900,10 +1962,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1915,13 +1977,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1936,10 +1998,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1951,13 +2013,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1969,13 +2031,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -1987,13 +2049,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -2003,13 +2065,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -2021,69 +2083,69 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -2091,13 +2153,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -2105,13 +2167,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -2119,13 +2181,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -2133,279 +2195,279 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="22560" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="4020" yWindow="1240" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="155">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -565,6 +565,29 @@
   <si>
     <t>Your Alliance has activated a Shrine event, and it will end in 20 minutes, go for the war!</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrikeVillageMissTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>StrikeVillageMissContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行军失败</t>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)中的敌人已消失（撤军或退出联盟），部队已原路返回</t>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d)中的敵人已消失（撤軍或退出聯盟），部隊已原路返回</t>
+  </si>
+  <si>
+    <t>March failed</t>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d) does not existed(migrated or disappeared), your troop is returning now.</t>
   </si>
 </sst>
 </file>
@@ -1853,10 +1876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2470,6 +2493,34 @@
         <v>104</v>
       </c>
     </row>
+    <row r="41" spans="1:4" ht="20" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1240" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="5220" yWindow="1520" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -587,7 +587,7 @@
     <t>March failed</t>
   </si>
   <si>
-    <t>[%s]%s(%d,%d) does not existed(migrated or disappeared), your troop is returning now.</t>
+    <t>The enemy in [%s]%s(%d,%d) does not existed(retreated or quitted the Alliance), your troop is returning now.</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1879,7 @@
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="1520" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="4980" yWindow="1300" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -511,18 +511,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>%s Alliance granted you %s loyalty points for your heroic!</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>You received %s Dragon Coins as the NO.1 Killer prize in the last Alliance Battle.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your Alliance territory has been migrated from round%s to round%s.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>[%s]%s helped you to defend a enemy scout</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -539,10 +527,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Your Alliance position has been adjusted to %s.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>You have been kicked out</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -588,6 +572,22 @@
   </si>
   <si>
     <t>The enemy in [%s]%s(%d,%d) does not existed(retreated or quitted the Alliance), your troop is returning now.</t>
+  </si>
+  <si>
+    <t>Your Alliance territory has been migrated from round%d to round%d.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s Alliance granted you %d loyalty points for your heroic!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Alliance position has been adjusted from %s to %s.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You received %d Dragon Coins as the NO.1 Killer prize in the last Alliance Battle.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1878,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2057,7 +2057,7 @@
         <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>61</v>
@@ -2075,7 +2075,7 @@
         <v>115</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>58</v>
@@ -2091,7 +2091,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>59</v>
@@ -2109,7 +2109,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
@@ -2193,7 +2193,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -2207,7 +2207,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>50</v>
@@ -2221,7 +2221,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>51</v>
@@ -2249,7 +2249,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>52</v>
@@ -2277,7 +2277,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>57</v>
@@ -2291,7 +2291,7 @@
         <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>75</v>
@@ -2333,7 +2333,7 @@
         <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>107</v>
@@ -2361,7 +2361,7 @@
         <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>108</v>
@@ -2375,7 +2375,7 @@
         <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>109</v>
@@ -2403,7 +2403,7 @@
         <v>92</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>102</v>
@@ -2495,13 +2495,13 @@
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>101</v>
@@ -2509,16 +2509,16 @@
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="1300" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="1060" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -214,14 +214,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>你在联盟会战中奋勇杀敌，成为“头号杀手”,系统已奖励%d金龙币到你的账户中。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你在聯盟會戰中奮勇殺敵，成為“頭號殺手”,系統已獎勵%d金龍幣到你的賬戶中。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>[%s]%s幫你抵禦了一次突襲。</t>
   </si>
   <si>
@@ -586,7 +578,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>You received %d Dragon Coins as the NO.1 Killer prize in the last Alliance Battle.</t>
+    <t>你在联盟会战中奋勇杀敌，成为“头号杀手”,系统已奖励金龙币到你的账户中。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You received Dragon Coins as the NO.1 Killer prize in the last Alliance Battle.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在聯盟會戰中奮勇殺敵，成為“頭號殺手”,系統已獎勵金龍幣到你的賬戶中。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1878,8 +1878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1917,7 +1917,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>39</v>
@@ -1931,7 +1931,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
@@ -1949,7 +1949,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>40</v>
@@ -1967,7 +1967,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>46</v>
@@ -1985,7 +1985,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>41</v>
@@ -2003,7 +2003,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>54</v>
@@ -2021,7 +2021,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>42</v>
@@ -2039,7 +2039,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>47</v>
@@ -2054,13 +2054,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -2072,13 +2072,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -2091,10 +2091,10 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -2109,66 +2109,66 @@
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -2179,7 +2179,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>48</v>
@@ -2193,7 +2193,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -2207,7 +2207,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>50</v>
@@ -2221,7 +2221,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>51</v>
@@ -2235,7 +2235,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>43</v>
@@ -2249,7 +2249,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>52</v>
@@ -2263,7 +2263,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>44</v>
@@ -2274,251 +2274,251 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="1220" yWindow="260" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="alliance" sheetId="22" r:id="rId1"/>
@@ -578,16 +578,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>你在联盟会战中奋勇杀敌，成为“头号杀手”,系统已奖励金龙币到你的账户中。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>You received Dragon Coins as the NO.1 Killer prize in the last Alliance Battle.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>你在聯盟會戰中奮勇殺敵，成為“頭號殺手”,系統已獎勵金龍幣到你的賬戶中。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>你在联盟会战中奋勇杀敌，成为“头号杀手”,请领取以下奖励。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please claim the Dragon Coins as the NO.1 Killer prize in the last Alliance Battle.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在聯盟會戰中奮勇殺敵，成為“頭號殺手”,請領取以下獎勵。</t>
   </si>
 </sst>
 </file>
@@ -744,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="332">
+  <cellStyleXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -759,6 +758,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1097,7 +1098,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="332">
+  <cellStyles count="334">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1266,6 +1267,7 @@
     <cellStyle name="超链接" xfId="326" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1427,6 +1429,7 @@
     <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1878,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="260" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="1820" yWindow="240" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
-    <sheet name="alliance" sheetId="22" r:id="rId1"/>
+    <sheet name="player" sheetId="23" r:id="rId1"/>
+    <sheet name="alliance" sheetId="22" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="163">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -587,6 +592,38 @@
   </si>
   <si>
     <t>你在聯盟會戰中奮勇殺敵，成為“頭號殺手”,請領取以下獎勵。</t>
+  </si>
+  <si>
+    <t>MuteTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MuteContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被禁言</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁言被提前解除</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被提前解除了禁言,请珍惜聊天环境,健康聊天</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnMuteTitle</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnMuteContent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被墨子[%s]禁言%d分钟,禁言原因:%s</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -743,7 +780,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="334">
+  <cellStyleXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -758,6 +795,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1098,7 +1159,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="334">
+  <cellStyles count="358">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1268,6 +1329,18 @@
     <cellStyle name="超链接" xfId="328" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="330" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1430,6 +1503,18 @@
     <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1879,10 +1964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1914,6 +1999,161 @@
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="20" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="20" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="20" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" ht="20" customHeight="1">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="20" customHeight="1">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" ht="20" customHeight="1">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" ht="20" customHeight="1">
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" ht="20" customHeight="1">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" ht="20" customHeight="1">
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" ht="20" customHeight="1">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T42"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="20.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="240" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="31360" yWindow="60" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="23" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="165">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -623,6 +623,14 @@
   </si>
   <si>
     <t>你被墨子[%s]禁言%d分钟,禁言原因:%s</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatMuteNotice</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]被墨子[%s]禁言%d分钟,禁言原因:%s</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -780,7 +788,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="358">
+  <cellStyleXfs count="362">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -795,6 +803,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1159,7 +1171,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="358">
+  <cellStyles count="362">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1341,6 +1353,8 @@
     <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1515,6 +1529,8 @@
     <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1967,7 +1983,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2066,6 +2082,18 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="20" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31360" yWindow="60" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="23" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="173">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -631,6 +631,38 @@
   </si>
   <si>
     <t>[%s]被墨子[%s]禁言%d分钟,禁言原因:%s</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被提前解除了禁言,请珍惜聊天环境,健康聊天</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[%s]被MOD[%s]禁言%d分钟,禁言原因:%s。 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">你被MOD[%s]禁言%d分钟,禁言原因:%s。 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are muted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You are muted for %d minutes by MOD[%s], reason: %s. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[%s] is muted for %d minutes by MOD[%s], reason: %s. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are unmuted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are unmuted ahead of time.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +820,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="362">
+  <cellStyleXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -803,6 +835,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1171,7 +1205,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="362">
+  <cellStyles count="364">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1355,6 +1389,7 @@
     <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1531,6 +1566,7 @@
     <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1982,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2021,7 +2057,7 @@
         <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>157</v>
@@ -2032,10 +2068,10 @@
         <v>156</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>162</v>
@@ -2053,7 +2089,7 @@
         <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>158</v>
@@ -2068,10 +2104,10 @@
         <v>161</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>159</v>
@@ -2086,10 +2122,10 @@
         <v>163</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>164</v>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -654,15 +654,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">[%s] is muted for %d minutes by MOD[%s], reason: %s. </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>You are unmuted</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>You are unmuted ahead of time.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[%s] is muted by MOD[%s] for %d minutes , reason: %s. </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2019,7 +2019,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2089,7 +2089,7 @@
         <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>158</v>
@@ -2107,7 +2107,7 @@
         <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>159</v>
@@ -2125,7 +2125,7 @@
         <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>164</v>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="1400" yWindow="480" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="23" r:id="rId1"/>
@@ -642,18 +642,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">你被MOD[%s]禁言%d分钟,禁言原因:%s。 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>You are muted</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">You are muted for %d minutes by MOD[%s], reason: %s. </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>You are unmuted</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -662,7 +654,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">[%s] is muted by MOD[%s] for %d minutes , reason: %s. </t>
+    <t xml:space="preserve">你被MOD-%s禁言%d分钟,禁言原因:%s。 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You are muted for %d minutes by MOD-%s, reason: %s. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">%s is muted by MOD-%s for %d minutes, reason: %s. </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2057,7 +2057,7 @@
         <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>157</v>
@@ -2068,10 +2068,10 @@
         <v>156</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>162</v>
@@ -2089,7 +2089,7 @@
         <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>158</v>
@@ -2107,7 +2107,7 @@
         <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>159</v>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -448,10 +448,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Your Alliance position has been adjusted</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>March failed</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -634,10 +630,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>你被提前解除了禁言,请珍惜聊天环境,健康聊天</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">[%s]被MOD[%s]禁言%d分钟,禁言原因:%s。 </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -658,11 +650,19 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">You are muted for %d minutes by MOD-%s, reason: %s. </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">%s is muted by MOD-%s for %d minutes, reason: %s. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You are muted by MOD-%s for %d minutes, reason: %s. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被提前解除了禁言,请爱护聊天环境,健康聊天</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alliance position changed</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2019,7 +2019,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2051,30 +2051,30 @@
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -2083,16 +2083,16 @@
     </row>
     <row r="4" spans="1:20" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -2101,16 +2101,16 @@
     </row>
     <row r="5" spans="1:20" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -2119,16 +2119,16 @@
     </row>
     <row r="6" spans="1:20" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -2185,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2224,7 +2224,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>39</v>
@@ -2238,7 +2238,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
@@ -2274,7 +2274,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>46</v>
@@ -2310,7 +2310,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>54</v>
@@ -2346,7 +2346,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>47</v>
@@ -2364,7 +2364,7 @@
         <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>59</v>
@@ -2382,7 +2382,7 @@
         <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>56</v>
@@ -2398,7 +2398,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>57</v>
@@ -2416,7 +2416,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>58</v>
@@ -2486,7 +2486,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>48</v>
@@ -2500,7 +2500,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -2514,7 +2514,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>50</v>
@@ -2528,7 +2528,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>51</v>
@@ -2542,7 +2542,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>43</v>
@@ -2556,7 +2556,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>52</v>
@@ -2570,7 +2570,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>44</v>
@@ -2581,13 +2581,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -2598,7 +2598,7 @@
         <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>73</v>
@@ -2612,7 +2612,7 @@
         <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>103</v>
@@ -2626,7 +2626,7 @@
         <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>104</v>
@@ -2640,7 +2640,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>105</v>
@@ -2654,7 +2654,7 @@
         <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>98</v>
@@ -2668,7 +2668,7 @@
         <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>106</v>
@@ -2682,7 +2682,7 @@
         <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>107</v>
@@ -2696,7 +2696,7 @@
         <v>85</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>99</v>
@@ -2710,7 +2710,7 @@
         <v>90</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>100</v>
@@ -2724,7 +2724,7 @@
         <v>85</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>99</v>
@@ -2738,7 +2738,7 @@
         <v>93</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>101</v>
@@ -2752,7 +2752,7 @@
         <v>85</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>99</v>
@@ -2766,7 +2766,7 @@
         <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>108</v>
@@ -2780,7 +2780,7 @@
         <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>99</v>
@@ -2794,7 +2794,7 @@
         <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>102</v>
@@ -2802,13 +2802,13 @@
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>99</v>
@@ -2816,16 +2816,16 @@
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="240" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="1400" yWindow="480" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="23" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="173">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -448,10 +448,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Your Alliance position has been adjusted</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>March failed</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -623,6 +619,50 @@
   </si>
   <si>
     <t>你被墨子[%s]禁言%d分钟,禁言原因:%s</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatMuteNotice</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]被墨子[%s]禁言%d分钟,禁言原因:%s</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[%s]被MOD[%s]禁言%d分钟,禁言原因:%s。 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are muted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are unmuted</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You are unmuted ahead of time.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">你被MOD-%s禁言%d分钟,禁言原因:%s。 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">%s is muted by MOD-%s for %d minutes, reason: %s. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You are muted by MOD-%s for %d minutes, reason: %s. </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被提前解除了禁言,请爱护聊天环境,健康聊天</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alliance position changed</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -780,7 +820,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="358">
+  <cellStyleXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -795,6 +835,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1159,7 +1205,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="358">
+  <cellStyles count="364">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1341,6 +1387,9 @@
     <cellStyle name="超链接" xfId="352" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="354" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1515,6 +1564,9 @@
     <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1966,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1999,30 +2051,30 @@
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -2031,16 +2083,16 @@
     </row>
     <row r="4" spans="1:20" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -2049,16 +2101,16 @@
     </row>
     <row r="5" spans="1:20" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -2066,6 +2118,18 @@
       <c r="T5" s="4"/>
     </row>
     <row r="6" spans="1:20" ht="20" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -2121,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2160,7 +2224,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>39</v>
@@ -2174,7 +2238,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>45</v>
@@ -2210,7 +2274,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>46</v>
@@ -2246,7 +2310,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>54</v>
@@ -2282,7 +2346,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>47</v>
@@ -2300,7 +2364,7 @@
         <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>59</v>
@@ -2318,7 +2382,7 @@
         <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>56</v>
@@ -2334,7 +2398,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>57</v>
@@ -2352,7 +2416,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>58</v>
@@ -2422,7 +2486,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>48</v>
@@ -2436,7 +2500,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>49</v>
@@ -2450,7 +2514,7 @@
         <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>50</v>
@@ -2464,7 +2528,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>51</v>
@@ -2478,7 +2542,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>43</v>
@@ -2492,7 +2556,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>52</v>
@@ -2506,7 +2570,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>44</v>
@@ -2517,13 +2581,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
@@ -2534,7 +2598,7 @@
         <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>73</v>
@@ -2548,7 +2612,7 @@
         <v>74</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>103</v>
@@ -2562,7 +2626,7 @@
         <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>104</v>
@@ -2576,7 +2640,7 @@
         <v>84</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>105</v>
@@ -2590,7 +2654,7 @@
         <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>98</v>
@@ -2604,7 +2668,7 @@
         <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>106</v>
@@ -2618,7 +2682,7 @@
         <v>78</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>107</v>
@@ -2632,7 +2696,7 @@
         <v>85</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>99</v>
@@ -2646,7 +2710,7 @@
         <v>90</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>100</v>
@@ -2660,7 +2724,7 @@
         <v>85</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>99</v>
@@ -2674,7 +2738,7 @@
         <v>93</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>101</v>
@@ -2688,7 +2752,7 @@
         <v>85</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>99</v>
@@ -2702,7 +2766,7 @@
         <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>108</v>
@@ -2716,7 +2780,7 @@
         <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>99</v>
@@ -2730,7 +2794,7 @@
         <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>102</v>
@@ -2738,13 +2802,13 @@
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>99</v>
@@ -2752,16 +2816,16 @@
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="480" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="1460" yWindow="640" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="23" r:id="rId1"/>
@@ -630,10 +630,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">[%s]被MOD[%s]禁言%d分钟,禁言原因:%s。 </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>You are muted</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -663,6 +659,10 @@
   </si>
   <si>
     <t>Alliance position changed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">%s被MOD-%s禁言%d分钟,禁言原因:%s。 </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2018,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2057,7 +2057,7 @@
         <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>156</v>
@@ -2068,10 +2068,10 @@
         <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>161</v>
@@ -2089,7 +2089,7 @@
         <v>157</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>157</v>
@@ -2104,10 +2104,10 @@
         <v>160</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>158</v>
@@ -2122,10 +2122,10 @@
         <v>162</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>163</v>
@@ -2486,7 +2486,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>48</v>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="480" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="1400" yWindow="480" windowWidth="25600" windowHeight="16060" tabRatio="210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="23" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="157">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -72,18 +72,6 @@
     <t>InviteApprovedContent</t>
   </si>
   <si>
-    <t>HelpDefenceStrikeTitle</t>
-  </si>
-  <si>
-    <t>HelpDefenceStrikeContent</t>
-  </si>
-  <si>
-    <t>HelpDefenceAttackTitle</t>
-  </si>
-  <si>
-    <t>HelpDefenceAttackContent</t>
-  </si>
-  <si>
     <t>AllianceTitleBeModifyedTitle</t>
   </si>
   <si>
@@ -147,12 +135,6 @@
     <t>恭喜,%s 接受了你对他加入联盟的邀请。</t>
   </si>
   <si>
-    <t>[%s]%s帮你抵御了一次进攻</t>
-  </si>
-  <si>
-    <t>[%s]%s帮你抵御了一次进攻。</t>
-  </si>
-  <si>
     <t>你的联盟职位被调整</t>
   </si>
   <si>
@@ -219,18 +201,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>[%s]%s幫你抵禦了一次突襲。</t>
-  </si>
-  <si>
-    <t>[%s]%s幫你抵禦了一次進攻</t>
-  </si>
-  <si>
-    <t>[%s]%s幫你抵禦了一次進攻。</t>
-  </si>
-  <si>
-    <t>[%s]%s幫你抵禦了一次突襲</t>
-  </si>
-  <si>
     <t>AttackAlliancePrepare</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -428,14 +398,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>[%s]%s帮你抵御了一次侦察</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[%s]%s帮你抵御了一次侦察。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Your Alliance has declared a war, and it will start in 15 minutes, prepare for the battle!</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -501,22 +463,6 @@
   </si>
   <si>
     <t>Congratulations! %s has accepted your invitation.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[%s]%s helped you to defend a enemy scout</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[%s]%s helped you to defend a enemy scout.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[%s]%s helped you to defend a enemy attack</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>[%s]%s helped you to defend a enemy attack.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2018,7 +1964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2042,7 +1988,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -2051,30 +1997,30 @@
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -2083,16 +2029,16 @@
     </row>
     <row r="4" spans="1:20" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -2101,16 +2047,16 @@
     </row>
     <row r="5" spans="1:20" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -2119,16 +2065,16 @@
     </row>
     <row r="6" spans="1:20" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -2183,10 +2129,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2209,7 +2155,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -2221,13 +2167,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
@@ -2235,13 +2181,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -2253,13 +2199,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -2271,13 +2217,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -2289,13 +2235,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -2307,13 +2253,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -2325,13 +2271,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -2343,13 +2289,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -2358,250 +2304,240 @@
     </row>
     <row r="10" spans="1:20" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
@@ -2609,223 +2545,167 @@
         <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="20" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="480" windowWidth="25600" windowHeight="16060" tabRatio="210" activeTab="1"/>
+    <workbookView xWindow="32640" yWindow="-280" windowWidth="25600" windowHeight="16060" tabRatio="210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="23" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="169">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -610,6 +610,43 @@
   <si>
     <t>Alliance position changed</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpDefenceStrikeTitle</t>
+  </si>
+  <si>
+    <t>[%s]%s帮你抵御了一次侦察</t>
+  </si>
+  <si>
+    <t>[%s]%s helped you to defend a enemy scout</t>
+  </si>
+  <si>
+    <t>%s]%s幫你抵禦了一次突襲</t>
+  </si>
+  <si>
+    <t>HelpDefenceStrikeContent</t>
+  </si>
+  <si>
+    <t>[%s]%s帮你抵御了一次侦察</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了一次突襲</t>
+  </si>
+  <si>
+    <t>HelpDefenceAttackTitle</t>
+  </si>
+  <si>
+    <t>[%s]%s帮你抵御了一次进攻</t>
+  </si>
+  <si>
+    <t>[%s]%s helped you to defend a enemy attack</t>
+  </si>
+  <si>
+    <t>[%s]%s幫你抵禦了一次進攻</t>
+  </si>
+  <si>
+    <t>HelpDefenceAttackContent</t>
   </si>
 </sst>
 </file>
@@ -2129,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2708,6 +2745,62 @@
         <v>129</v>
       </c>
     </row>
+    <row r="39" spans="1:4" ht="20" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="20" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="20" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="20" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="32640" yWindow="-280" windowWidth="25600" windowHeight="16060" tabRatio="210" activeTab="1"/>
+    <workbookView xWindow="760" yWindow="560" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="23" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="185">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -647,6 +647,70 @@
   </si>
   <si>
     <t>HelpDefenceAttackContent</t>
+  </si>
+  <si>
+    <t>welcomeMailTitle_wp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>welcomeMailContent_wp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>welcomeMailTitle_ios</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>welcomeMailContent_ios</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp中文欢迎标题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp中文欢迎类容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios中文欢迎标题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios中文欢迎类容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp英文欢迎标题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp英文欢迎类容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios英文欢迎标题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios英文欢迎类容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp繁体欢迎标题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wp繁体欢迎类容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios繁体欢迎标题</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ios繁体欢迎类容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -803,7 +867,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="364">
+  <cellStyleXfs count="390">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -818,6 +882,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1188,7 +1278,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="364">
+  <cellStyles count="390">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1373,6 +1463,19 @@
     <cellStyle name="超链接" xfId="358" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="360" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="376" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="378" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="380" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="382" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="384" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1550,6 +1653,19 @@
     <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1999,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2119,30 +2235,80 @@
       <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:20" ht="20" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="20" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:20" ht="20" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:20" ht="20" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:20" ht="20" customHeight="1">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
     </row>
@@ -2151,6 +2317,22 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" ht="20" customHeight="1">
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20" ht="20" customHeight="1">
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" ht="20" customHeight="1">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2168,7 +2350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="680" yWindow="640" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="23" r:id="rId1"/>
@@ -665,38 +665,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>wp中文欢迎标题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp中文欢迎类容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ios中文欢迎标题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ios中文欢迎类容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp英文欢迎标题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp英文欢迎类容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ios英文欢迎标题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ios英文欢迎类容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>wp繁体欢迎标题</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -710,6 +678,106 @@
   </si>
   <si>
     <t>ios繁体欢迎类容</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎您加入《巨龙争霸》！</t>
+  </si>
+  <si>
+    <t>欢迎您加入《魔龙创世纪》！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome to Dragonfall!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome to Dragon War!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲爱的领主大人：\
+\
+    欢迎您加入即时策略游戏《魔龙创世纪》！\
+\
+    在这里，你可以：\
+\
+     收集物资，玩转城市建设，创造一个个性化的帝国\
+     丰富的兵种，强大的装备等待你来发掘\
+     训练并提升你的巨龙，带领史诗级的部队出征\
+     探索各式各样未知的领土\
+     与其他玩家组成联盟，共同征服敌人，建立最强王国\
+     便捷的语言翻译功能，与世界各地玩家共同制定游戏策略\
+\
+\
+     如果在游戏中遇到什么问题，您可以通过游戏内的“联系我们”和我们沟通。\
+ \
+     祝您游戏愉快！\
+\
+\
+魔龙创世纪 团队</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲爱的领主大人：\
+\
+    欢迎您加入即时策略游戏《巨龙争霸》！\
+\
+    在这里，你可以：\
+\
+     收集物资，玩转城市建设，创造一个个性化的帝国\
+     丰富的兵种，强大的装备等待你来发掘\
+     训练并提升你的巨龙，带领史诗级的部队出征\
+     探索各式各样未知的领土\
+     与其他玩家组成联盟，共同征服敌人，建立最强王国\
+     便捷的语言翻译功能，与世界各地玩家共同制定游戏策略\
+\
+\
+     如果在游戏中遇到什么问题，您可以通过游戏内的“联系我们”以及以下方式和我们沟通：\
+ \
+     官方玩家QQ群：575936673\
+     官方微信公众号：jituohudong\
+\
+      祝您游戏愉快！\
+\
+\
+巨龙争霸 团队</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dear Lord:\
+\
+    Welcome to join Dragon War!\
+\
+    Have you ever dreamed of commanding Dragons? Now, try it here in Dragon War, a wonderful hard-core MMO strategy game! Play for free with Millions of players and make prudent choices for each step of your growth, or bear the risk of defeats! Join an Alliance to fight for the throne with the ultimate power of Dragons, win a place for your kingdom in this land of fantasia!\
+\
+    You, a heroic warlord of the Knights, died in the crusade against the Black Dragon. But for an unknown purpose the evil dragon resurrected you, granted you the mysterious ability of commanding other dragons. By coming back you find the Empire been ripped apart by betrayers, and the civilians suffer deeply from the war. Will you unify the broken Empire again? Will you be strong enough to take vengeance on the Black Dragon? Establish your kingdom, build your army, and prove yourself in the cruel war field!\
+\
+\
+    If you have any problems or suggestions, please feel free to contact us via the \"Contact Us\" in our game.\
+\
+    Thank you and have fun!\
+\
+\
+Dragon War Team</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dear Lord:\
+\
+    Welcome to join Dragonfall!\
+\
+    Have you ever dreamed of commanding Dragons? Now, try it here in Dragonfall, a wonderful hard-core MMO strategy game! Play for free with Millions of players and make prudent choices for each step of your growth, or bear the risk of defeats! Join an Alliance to fight for the throne with the ultimate power of Dragons, win a place for your kingdom in this land of fantasia!\
+\
+    You, a heroic warlord of the Knights, died in the crusade against the Black Dragon. But for an unknown purpose the evil dragon resurrected you, granted you the mysterious ability of commanding other dragons. By coming back you find the Empire been ripped apart by betrayers, and the civilians suffer deeply from the war. Will you unify the broken Empire again? Will you be strong enough to take vengeance on the Black Dragon? Establish your kingdom, build your army, and prove yourself in the cruel war field!\
+\
+\
+    If you have any problems or suggestions, please feel free to contact us via the \"Contact Us\" in our game.\
+\
+    Thank you and have fun!\
+\
+\
+Dragonfall Team</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1263,7 +1331,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1276,6 +1344,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="390">
@@ -2117,8 +2188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2239,13 +2310,13 @@
         <v>169</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -2256,14 +2327,14 @@
       <c r="A8" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -2275,13 +2346,13 @@
         <v>171</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -2292,14 +2363,14 @@
       <c r="A10" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="640" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="920" yWindow="320" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="23" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="188">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -665,22 +665,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>wp繁体欢迎标题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>wp繁体欢迎类容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ios繁体欢迎标题</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ios繁体欢迎类容</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>欢迎您加入《巨龙争霸》！</t>
   </si>
   <si>
@@ -696,88 +680,105 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>亲爱的领主大人：\
-\
-    欢迎您加入即时策略游戏《魔龙创世纪》！\
-\
-    在这里，你可以：\
-\
-     收集物资，玩转城市建设，创造一个个性化的帝国\
-     丰富的兵种，强大的装备等待你来发掘\
-     训练并提升你的巨龙，带领史诗级的部队出征\
-     探索各式各样未知的领土\
-     与其他玩家组成联盟，共同征服敌人，建立最强王国\
-     便捷的语言翻译功能，与世界各地玩家共同制定游戏策略\
-\
-\
-     如果在游戏中遇到什么问题，您可以通过游戏内的“联系我们”和我们沟通。\
- \
-     祝您游戏愉快！\
-\
-\
+    <t>Dear Lord:
+    Welcome to join Dragon War!
+    Have you ever dreamed of commanding Dragons? Now, try it here in Dragon War, a wonderful hard-core MMO strategy game! Play for free with Millions of players and make prudent choices for each step of your growth, or bear the risk of defeats! Join an Alliance to fight for the throne with the ultimate power of Dragons, win a place for your kingdom in this land of fantasia!
+    You, a heroic warlord of the Knights, died in the crusade against the Black Dragon. But for an unknown purpose the evil dragon resurrected you, granted you the mysterious ability of commanding other dragons. By coming back you find the Empire been ripped apart by betrayers, and the civilians suffer deeply from the war. Will you unify the broken Empire again? Will you be strong enough to take vengeance on the Black Dragon? Establish your kingdom, build your army, and prove yourself in the cruel war field!
+    If you have any problems or suggestions, please feel free to contact us via the "Contact Us" in our game.
+    Thank you and have fun!
+Dragon War Team</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡迎您加入《魔龍創世紀》！</t>
+  </si>
+  <si>
+    <t>"親愛的領主大人：
+    歡迎您加入即時策略遊戲《魔龍創世紀》！
+    在這裏，您可以：
+     收集物資，玩轉城市建設，創造一個個性化的帝國
+     豐富的兵種，強大的裝備等待您來發掘
+     訓練並提升你的巨龍，帶領史詩級的部隊出征
+     探索各式各樣未知的領土
+     與其他玩家組成聯盟，共同征服敵人，建立最強王國
+     便捷的語言翻譯功能，與世界各地玩家共同制定遊戲策略
+     如果在遊戲中遇到什麽問題，您可以通過遊戲內的“聯系我們”和我們溝通。
+     祝您遊戲愉快！
+魔龍創世紀 團隊"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡迎您加入《巨龍爭霸》！</t>
+  </si>
+  <si>
+    <t>"親愛的領主大人：
+    歡迎您加入即時策略遊戲《巨龍爭霸》！
+    在這裏，您可以：
+     收集物資，玩轉城市建設，創造一個個性化的帝國
+     豐富的兵種，強大的裝備等待你來發掘
+     訓練並提升你的巨龍，帶領史詩級的部隊出征
+     探索各式各樣未知的領土
+     與其他玩家組成聯盟，共同征服敵人，建立最強王國
+     便捷的語言翻譯功能，與世界各地玩家共同制定遊戲策略
+     如果在遊戲中遇到什麽問題，您可以通過遊戲內的“聯系我們”以及以下方式和我們溝通：
+     官方玩家QQ群：575936673
+     官方微信公眾號：jituohudong
+      祝您遊戲愉快！
+巨龍爭霸 團隊"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dear Lord:
+    Welcome to join Dragonfall!
+    Have you ever dreamed of commanding Dragons? Now, try it here in Dragonfall, a wonderful hard-core MMO strategy game! Play for free with Millions of players and make prudent choices for each step of your growth, or bear the risk of defeats! Join an Alliance to fight for the throne with the ultimate power of Dragons, win a place for your kingdom in this land of fantasia!
+    You, a heroic warlord of the Knights, died in the crusade against the Black Dragon. But for an unknown purpose the evil dragon resurrected you, granted you the mysterious ability of commanding other dragons. By coming back you find the Empire been ripped apart by betrayers, and the civilians suffer deeply from the war. Will you unify the broken Empire again? Will you be strong enough to take vengeance on the Black Dragon? Establish your kingdom, build your army, and prove yourself in the cruel war field!
+    If you have any problems or suggestions, please feel free to contact us via the "Contact Us" in our game.
+    Thank you and have fun!
+Dragonfall Team</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲爱的领主大人：
+    欢迎您加入即时策略游戏《魔龙创世纪》！
+    在这里，您可以：
+     收集物资，玩转城市建设，创造一个个性化的帝国
+     丰富的兵种，强大的装备等待你来发掘
+     训练并提升你的巨龙，带领史诗级的部队出征
+     探索各式各样未知的领土
+     与其他玩家组成联盟，共同征服敌人，建立最强王国
+     便捷的语言翻译功能，与世界各地玩家共同制定游戏策略
+     如果在游戏中遇到什么问题，您可以通过游戏内的“联系我们”和我们沟通。
+     祝您游戏愉快！
 魔龙创世纪 团队</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>亲爱的领主大人：\
-\
-    欢迎您加入即时策略游戏《巨龙争霸》！\
-\
-    在这里，你可以：\
-\
-     收集物资，玩转城市建设，创造一个个性化的帝国\
-     丰富的兵种，强大的装备等待你来发掘\
-     训练并提升你的巨龙，带领史诗级的部队出征\
-     探索各式各样未知的领土\
-     与其他玩家组成联盟，共同征服敌人，建立最强王国\
-     便捷的语言翻译功能，与世界各地玩家共同制定游戏策略\
-\
-\
-     如果在游戏中遇到什么问题，您可以通过游戏内的“联系我们”以及以下方式和我们沟通：\
- \
-     官方玩家QQ群：575936673\
-     官方微信公众号：jituohudong\
-\
-      祝您游戏愉快！\
-\
-\
+    <t>亲爱的领主大人：
+    欢迎您加入即时策略游戏《巨龙争霸》！
+    在这里，您可以：
+     收集物资，玩转城市建设，创造一个个性化的帝国
+     丰富的兵种，强大的装备等待你来发掘
+     训练并提升你的巨龙，带领史诗级的部队出征
+     探索各式各样未知的领土
+     与其他玩家组成联盟，共同征服敌人，建立最强王国
+     便捷的语言翻译功能，与世界各地玩家共同制定游戏策略
+     如果在游戏中遇到什么问题，您可以通过游戏内的“联系我们”以及以下方式和我们沟通：
+     官方玩家QQ群：575936673
+     官方微信公众号：jituohudong
+      祝您游戏愉快！
 巨龙争霸 团队</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Dear Lord:\
-\
-    Welcome to join Dragon War!\
-\
-    Have you ever dreamed of commanding Dragons? Now, try it here in Dragon War, a wonderful hard-core MMO strategy game! Play for free with Millions of players and make prudent choices for each step of your growth, or bear the risk of defeats! Join an Alliance to fight for the throne with the ultimate power of Dragons, win a place for your kingdom in this land of fantasia!\
-\
-    You, a heroic warlord of the Knights, died in the crusade against the Black Dragon. But for an unknown purpose the evil dragon resurrected you, granted you the mysterious ability of commanding other dragons. By coming back you find the Empire been ripped apart by betrayers, and the civilians suffer deeply from the war. Will you unify the broken Empire again? Will you be strong enough to take vengeance on the Black Dragon? Establish your kingdom, build your army, and prove yourself in the cruel war field!\
-\
-\
-    If you have any problems or suggestions, please feel free to contact us via the \"Contact Us\" in our game.\
-\
-    Thank you and have fun!\
-\
-\
-Dragon War Team</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dear Lord:\
-\
-    Welcome to join Dragonfall!\
-\
-    Have you ever dreamed of commanding Dragons? Now, try it here in Dragonfall, a wonderful hard-core MMO strategy game! Play for free with Millions of players and make prudent choices for each step of your growth, or bear the risk of defeats! Join an Alliance to fight for the throne with the ultimate power of Dragons, win a place for your kingdom in this land of fantasia!\
-\
-    You, a heroic warlord of the Knights, died in the crusade against the Black Dragon. But for an unknown purpose the evil dragon resurrected you, granted you the mysterious ability of commanding other dragons. By coming back you find the Empire been ripped apart by betrayers, and the civilians suffer deeply from the war. Will you unify the broken Empire again? Will you be strong enough to take vengeance on the Black Dragon? Establish your kingdom, build your army, and prove yourself in the cruel war field!\
-\
-\
-    If you have any problems or suggestions, please feel free to contact us via the \"Contact Us\" in our game.\
-\
-    Thank you and have fun!\
-\
-\
-Dragonfall Team</t>
+    <t>MULTISTR_en</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTISTR_tw</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTISTR_cn</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -935,7 +936,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="390">
+  <cellStyleXfs count="392">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1330,8 +1331,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1348,8 +1351,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="390">
+  <cellStyles count="392">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1547,6 +1553,7 @@
     <cellStyle name="超链接" xfId="384" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1737,6 +1744,7 @@
     <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2188,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2206,13 +2214,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>185</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -2309,14 +2317,14 @@
       <c r="A7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -2328,13 +2336,13 @@
         <v>170</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -2345,14 +2353,14 @@
       <c r="A9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -2364,13 +2372,13 @@
         <v>172</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="320" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
+    <workbookView xWindow="920" yWindow="320" windowWidth="25600" windowHeight="16060" tabRatio="210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="23" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="189">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -618,9 +618,6 @@
     <t>[%s]%s帮你抵御了一次侦察</t>
   </si>
   <si>
-    <t>[%s]%s helped you to defend a enemy scout</t>
-  </si>
-  <si>
     <t>%s]%s幫你抵禦了一次突襲</t>
   </si>
   <si>
@@ -638,9 +635,6 @@
   </si>
   <si>
     <t>[%s]%s帮你抵御了一次进攻</t>
-  </si>
-  <si>
-    <t>[%s]%s helped you to defend a enemy attack</t>
   </si>
   <si>
     <t>[%s]%s幫你抵禦了一次進攻</t>
@@ -779,6 +773,18 @@
   </si>
   <si>
     <t>MULTISTR_cn</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s helped you to defend an enemy scout</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s helped you to defend an enemy scout</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>[%s]%s helped you to defend an enemy attack</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1361,8 +1367,202 @@
     <cellStyle name="Normal_" xfId="3"/>
     <cellStyle name="Pourcentage" xfId="4"/>
     <cellStyle name="Standard_game" xfId="5"/>
+    <cellStyle name="표준_chapter_01" xfId="9"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="标题 1 1" xfId="6"/>
     <cellStyle name="标题 2 1" xfId="7"/>
+    <cellStyle name="解释性文本" xfId="8"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
@@ -1554,200 +1754,6 @@
     <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="363" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="365" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="367" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="369" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="371" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="373" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="375" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="377" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="379" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="381" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="383" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="385" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
-    <cellStyle name="解释性文本" xfId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_chapter_01" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2196,7 +2202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2214,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -2315,16 +2321,16 @@
     </row>
     <row r="7" spans="1:20" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -2333,16 +2339,16 @@
     </row>
     <row r="8" spans="1:20" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -2351,16 +2357,16 @@
     </row>
     <row r="9" spans="1:20" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -2369,16 +2375,16 @@
     </row>
     <row r="10" spans="1:20" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -2429,8 +2435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C26" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3014,52 +3020,52 @@
         <v>158</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="320" windowWidth="25600" windowHeight="16060" tabRatio="210" activeTab="1"/>
+    <workbookView xWindow="1440" yWindow="120" windowWidth="25600" windowHeight="16060" tabRatio="210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="23" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="234">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -466,10 +466,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>You have been kicked out</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>[%s]%s(%d,%d) does not existed(migrated or disappeared), your troop is returning now.</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -671,16 +667,6 @@
   </si>
   <si>
     <t>Welcome to Dragon War!</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dear Lord:
-    Welcome to join Dragon War!
-    Have you ever dreamed of commanding Dragons? Now, try it here in Dragon War, a wonderful hard-core MMO strategy game! Play for free with Millions of players and make prudent choices for each step of your growth, or bear the risk of defeats! Join an Alliance to fight for the throne with the ultimate power of Dragons, win a place for your kingdom in this land of fantasia!
-    You, a heroic warlord of the Knights, died in the crusade against the Black Dragon. But for an unknown purpose the evil dragon resurrected you, granted you the mysterious ability of commanding other dragons. By coming back you find the Empire been ripped apart by betrayers, and the civilians suffer deeply from the war. Will you unify the broken Empire again? Will you be strong enough to take vengeance on the Black Dragon? Establish your kingdom, build your army, and prove yourself in the cruel war field!
-    If you have any problems or suggestions, please feel free to contact us via the "Contact Us" in our game.
-    Thank you and have fun!
-Dragon War Team</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -722,16 +708,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Dear Lord:
-    Welcome to join Dragonfall!
-    Have you ever dreamed of commanding Dragons? Now, try it here in Dragonfall, a wonderful hard-core MMO strategy game! Play for free with Millions of players and make prudent choices for each step of your growth, or bear the risk of defeats! Join an Alliance to fight for the throne with the ultimate power of Dragons, win a place for your kingdom in this land of fantasia!
-    You, a heroic warlord of the Knights, died in the crusade against the Black Dragon. But for an unknown purpose the evil dragon resurrected you, granted you the mysterious ability of commanding other dragons. By coming back you find the Empire been ripped apart by betrayers, and the civilians suffer deeply from the war. Will you unify the broken Empire again? Will you be strong enough to take vengeance on the Black Dragon? Establish your kingdom, build your army, and prove yourself in the cruel war field!
-    If you have any problems or suggestions, please feel free to contact us via the "Contact Us" in our game.
-    Thank you and have fun!
-Dragonfall Team</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>亲爱的领主大人：
     欢迎您加入即时策略游戏《魔龙创世纪》！
     在这里，您可以：
@@ -787,6 +763,185 @@
     <t>[%s]%s helped you to defend an enemy attack</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>STR_fr</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MULTISTR_fr</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vous avez été mis en sourdine</t>
+  </si>
+  <si>
+    <t>Vous avez été mis en sourdine par MOD-%s pour %d minutes, raison: %s.</t>
+  </si>
+  <si>
+    <t>Vous n'êtes plus sous sourdine</t>
+  </si>
+  <si>
+    <t>La sourdine vous effectant a été enlevé avant la fin prévue.</t>
+  </si>
+  <si>
+    <t>%s a été mis en sourdine par MOD-%s pour %d minutes, raison: %s.</t>
+  </si>
+  <si>
+    <t>Bienvenue dans DragonFall!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Cher Seigneur:
+Bienvenue à Dragonfall!
+Avez-vous déjà rêvé de commander des dragons? Maintenant, essayez-le ici dans Dragonfall, un merveilleux jeu MMO de stratégie! Jouez gratuitement avec des millions de joueurs et faites des choix judicieux pour chaque étape de votre croissance, ou supportez le risque de défaites! Joignez une alliance pour vous battre pour le trône avec le pouvoir ultime des dragons, gagner une place pour votre royaume dans ce pays de Fantasia!
+Vous, un héroïque chef de guerre des Chevaliers, mort dans la croisade contre le Dragon Noir, qui dans un but inconnu, vous a ressuscité et accordé la capacité mystérieuse de commander d'autres dragons. En revenant, vous trouvez l'Empire déchiré par des traîtres. Et les civils souffrent énormément de cette guerre. Voulez-vous à nouveau unifier l'Empire brisé? Serez-vous assez fort pour vous venger du Dragon Noir? Établissez votre royaume, construisez votre armée, et prouvez votre valeur sur le cruel champ de guerre!
+Si vous avez des problèmes ou suggestions, s'il vous plaît contactez-nous via "Contactez-nous" dans le jeu.
+Merci et amusez-vous!
+L'équipe de DragonFall"
+</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"Cher Seigneur:
+Bienvenue à Dragon War!
+Avez-vous déjà rêvé de commander des dragons? Maintenant, essayez-le ici dans Dragon War, un merveilleux jeu MMO de stratégie! Jouez gratuitement avec des millions de joueurs et faites des choix judicieux pour chaque étape de votre croissance, ou supportez le risque de défaites! Joignez une alliance pour vous battre pour le trône avec le pouvoir ultime des dragons, gagner une place pour votre royaume dans ce pays de Fantasia!
+Vous, un héroïque chef de guerre des Chevaliers, mort dans la croisade contre le Dragon Noir, qui dans un but inconnu, vous a ressuscité et accordé la capacité mystérieuse de commander d'autres dragons. En revenant, vous trouvez l'Empire déchiré par des traîtres. Et les civils souffrent énormément de cette guerre. Voulez-vous à nouveau unifier l'Empire brisé? Serez-vous assez fort pour vous venger du Dragon Noir? Établissez votre royaume, construisez votre armée, et prouvez votre valeur sur le cruel champ de guerre!
+Si vous avez des problèmes ou suggestions, s'il vous plaît contactez-nous via "Contactez-nous" dans le jeu.
+Merci et amusez-vous!
+L'équipe de Dragon War"
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dear Lord:
+    Welcome to join Dragonfall!
+    Have you ever dreamed of commanding Dragons? Now, try it here in Dragonfall, a wonderful hard-core MMO strategy game! Play for free with Millions of players and make prudent choices for each step of your growth, or bear the risk of defeats! Join an Alliance to fight for the throne with the ultimate power of Dragons, win a place for your kingdom in this land of fantasia!
+    You, a heroic warlord of the Knights, died in the crusade against the Black Dragon. But for an unknown purpose the evil dragon resurrected you, granted you the mysterious ability of commanding other dragons. By coming back you find the Empire been ripped apart by betrayers, and the civilians suffer deeply from the war. Will you unify the broken Empire again? Will you be strong enough to take vengeance on the Black Dragon? Establish your kingdom, build your army, and prove yourself in the cruel war field!
+    If you have any problems or suggestions, please feel free to contact us via the "Contact Us" in our game.
+    Thank you and have fun!
+Dragonfall Team</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dear Lord:
+    Welcome to join Dragon War!
+    Have you ever dreamed of commanding Dragons? Now, try it here in Dragon War, a wonderful hard-core MMO strategy game! Play for free with Millions of players and make prudent choices for each step of your growth, or bear the risk of defeats! Join an Alliance to fight for the throne with the ultimate power of Dragons, win a place for your kingdom in this land of fantasia!
+    You, a heroic warlord of the Knights, died in the crusade against the Black Dragon. But for an unknown purpose the evil dragon resurrected you, granted you the mysterious ability of commanding other dragons. By coming back you find the Empire been ripped apart by betrayers, and the civilians suffer deeply from the war. Will you unify the broken Empire again? Will you be strong enough to take vengeance on the Black Dragon? Establish your kingdom, build your army, and prove yourself in the cruel war field!
+    If you have any problems or suggestions, please feel free to contact us via the "Contact Us" in our game.
+    Thank you and have fun!
+Dragon War Team</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bienvenue dans Dragon War!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Votre application a été rejeté</t>
+  </si>
+  <si>
+    <t>Monseigneur, l'alliance %s a rejeté votre application.</t>
+  </si>
+  <si>
+    <t>Votre application a été approuvé</t>
+  </si>
+  <si>
+    <t>Félicitations! L'alliance %s a approuvé votre application.</t>
+  </si>
+  <si>
+    <t>Votre invitation a été rejeté</t>
+  </si>
+  <si>
+    <t>Monseigneur, %s a rejeté votre invitation.</t>
+  </si>
+  <si>
+    <t>Votre invitation a été accepté</t>
+  </si>
+  <si>
+    <t>Félicitations! %s a accepté votre invitation.</t>
+  </si>
+  <si>
+    <t>Votre alliance a déclaré la guerre et elle débute dans 15 min. Préparez la bataille!</t>
+  </si>
+  <si>
+    <t>%s a déclaré la guerre à votre alliance et elle débute dans 15 min. Préparez la bataille!</t>
+  </si>
+  <si>
+    <t>La bataille avec %s commence!</t>
+  </si>
+  <si>
+    <t>Votre rang dans l'alliance a été changé</t>
+  </si>
+  <si>
+    <t>Votre rang dans l'alliance est passé de %s à %s.</t>
+  </si>
+  <si>
+    <t>Vous avez été expulsé de l'alliance %s.</t>
+  </si>
+  <si>
+    <t>Recompense en loyauté</t>
+  </si>
+  <si>
+    <t>L'alliance %s vous alloue %d points de loyauté pour votre héroïcité!</t>
+  </si>
+  <si>
+    <t>Prix du tueur No.1</t>
+  </si>
+  <si>
+    <t>SVP réclamer les pièces de dragon du prix du tueur No.1 dans la dernière bataille.</t>
+  </si>
+  <si>
+    <t>Votre alliance a activé un évènement de sanctuaire, il prendra fin dans 20 mins. Allez en guerre!</t>
+  </si>
+  <si>
+    <t>Votre cité est sous attaque!</t>
+  </si>
+  <si>
+    <t>Votre alliance a migré</t>
+  </si>
+  <si>
+    <t>Votre alliance a migré de la ronde %d à la ronde %d.</t>
+  </si>
+  <si>
+    <t>Résultat de la bataille d'alliance</t>
+  </si>
+  <si>
+    <t>Votre alliance a défait [%s]%s dans la dernière bataille.</t>
+  </si>
+  <si>
+    <t>[%s]%s a défait votre alliance votre alliance dans la dernière bataille.</t>
+  </si>
+  <si>
+    <t>Échec de la marche</t>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d) n'existe plus (migré ou disparu), vos troupes reviennent.</t>
+  </si>
+  <si>
+    <t>Vous ne pouvez pas attaquer [%s]%s(%d,%d) qui est sous protection, vos troupes reviennent.</t>
+  </si>
+  <si>
+    <t>[%s]%s(%d,%d) est déjà occupé par votre allié, vous troupes reviennent.</t>
+  </si>
+  <si>
+    <t>Vous ne pouvez pas aider [%s]%s(%d,%d) qui est déjà assister, vos troupes reviennent.</t>
+  </si>
+  <si>
+    <t>L'ennemi en [%s]%s(%d,%d) n'existe plus (retiré ou a quitté l'alliance), vous troupes reviennent.</t>
+  </si>
+  <si>
+    <t>[%s]%s vous a aidé à vous défendre contre une exploration</t>
+  </si>
+  <si>
+    <t>[%s]%s vous a aidé à vous défendre contre une attaque ennemie</t>
+  </si>
+  <si>
+    <t>Vous avez été expulsé de l'alliance %s</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>You have been kicked out by %s Alliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -795,7 +950,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0\%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="宋体"/>
@@ -865,6 +1020,13 @@
       <color theme="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -942,7 +1104,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="392">
+  <cellStyleXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1339,8 +1501,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1360,8 +1530,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="392">
+  <cellStyles count="400">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1563,6 +1742,10 @@
     <cellStyle name="访问过的超链接" xfId="387" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="389" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
@@ -1754,6 +1937,10 @@
     <cellStyle name="超链接" xfId="386" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="388" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="398" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2202,8 +2389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showRuler="0" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2220,13 +2407,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -2235,30 +2425,36 @@
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="E3" t="s">
+        <v>189</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -2267,16 +2463,19 @@
     </row>
     <row r="4" spans="1:20" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>190</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -2285,16 +2484,19 @@
     </row>
     <row r="5" spans="1:20" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="E5" t="s">
+        <v>191</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -2303,16 +2505,19 @@
     </row>
     <row r="6" spans="1:20" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>147</v>
+      <c r="E6" t="s">
+        <v>192</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -2321,16 +2526,19 @@
     </row>
     <row r="7" spans="1:20" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="E7" t="s">
+        <v>193</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -2339,16 +2547,19 @@
     </row>
     <row r="8" spans="1:20" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -2357,16 +2568,19 @@
     </row>
     <row r="9" spans="1:20" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
+      </c>
+      <c r="E9" t="s">
+        <v>198</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -2375,16 +2589,19 @@
     </row>
     <row r="10" spans="1:20" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -2435,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C26" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2461,6 +2678,9 @@
       <c r="D1" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -2479,6 +2699,9 @@
       <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -2492,6 +2715,9 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>200</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -2511,6 +2737,9 @@
       <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="E4" t="s">
+        <v>201</v>
+      </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
@@ -2529,6 +2758,9 @@
       <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E5" t="s">
+        <v>202</v>
+      </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -2547,6 +2779,9 @@
       <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="E6" t="s">
+        <v>203</v>
+      </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
@@ -2565,6 +2800,9 @@
       <c r="D7" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="E7" t="s">
+        <v>204</v>
+      </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
@@ -2583,6 +2821,9 @@
       <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="E8" t="s">
+        <v>205</v>
+      </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -2601,6 +2842,9 @@
       <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="E9" t="s">
+        <v>206</v>
+      </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
@@ -2619,6 +2863,9 @@
       <c r="D10" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="E10" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
@@ -2633,6 +2880,9 @@
       <c r="D11" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="E11" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
@@ -2647,6 +2897,9 @@
       <c r="D12" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E12" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
@@ -2661,6 +2914,9 @@
       <c r="D13" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E13" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
@@ -2670,10 +2926,13 @@
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
@@ -2684,10 +2943,13 @@
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
@@ -2698,13 +2960,16 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+      <c r="E16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2712,13 +2977,16 @@
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="E17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2731,8 +2999,11 @@
       <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="E18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2740,13 +3011,16 @@
         <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="E19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -2759,22 +3033,28 @@
       <c r="D20" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="E20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="E21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -2782,13 +3062,16 @@
         <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="E22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -2801,8 +3084,11 @@
       <c r="D23" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="E23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -2815,8 +3101,11 @@
       <c r="D24" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="E24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -2824,13 +3113,16 @@
         <v>74</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="E25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -2843,8 +3135,11 @@
       <c r="D26" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1">
+      <c r="E26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -2852,13 +3147,16 @@
         <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1">
+      <c r="E27" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -2866,13 +3164,16 @@
         <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1">
+      <c r="E28" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>76</v>
       </c>
@@ -2885,8 +3186,11 @@
       <c r="D29" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1">
+      <c r="E29" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
@@ -2894,13 +3198,16 @@
         <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1">
+      <c r="E30" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
@@ -2913,8 +3220,11 @@
       <c r="D31" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1">
+      <c r="E31" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,8 +3237,11 @@
       <c r="D32" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1">
+      <c r="E32" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>81</v>
       </c>
@@ -2941,8 +3254,11 @@
       <c r="D33" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1">
+      <c r="E33" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
@@ -2955,8 +3271,11 @@
       <c r="D34" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1">
+      <c r="E34" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
@@ -2969,8 +3288,11 @@
       <c r="D35" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1">
+      <c r="E35" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>85</v>
       </c>
@@ -2983,89 +3305,110 @@
       <c r="D36" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1">
+      <c r="E36" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1">
+      <c r="E37" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1">
+      <c r="E38" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1">
+      <c r="A42" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="20" customHeight="1">
-      <c r="A42" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="B42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>165</v>
+      <c r="E42" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="120" windowWidth="25600" windowHeight="16060" tabRatio="210" activeTab="1"/>
+    <workbookView xWindow="1700" yWindow="820" windowWidth="25600" windowHeight="16060" tabRatio="210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="23" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="239">
   <si>
     <t>STR_key</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -940,6 +940,25 @@
   </si>
   <si>
     <t>You have been kicked out by %s Alliance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VillageBeAttacked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your village is under attack!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主人，你正在采集的村落即将被攻打！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>主人，你正在采集的村落即將被攻打！</t>
+  </si>
+  <si>
+    <t>Votre village est sous attaque!</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1104,7 +1123,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="400">
+  <cellStyleXfs count="406">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1119,6 +1138,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1540,7 +1565,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="400">
+  <cellStyles count="406">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1746,6 +1771,9 @@
     <cellStyle name="访问过的超链接" xfId="395" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="397" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="405" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
@@ -1941,6 +1969,9 @@
     <cellStyle name="超链接" xfId="394" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="396" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="404" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2389,7 +2420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2650,10 +2681,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3411,6 +3442,23 @@
         <v>231</v>
       </c>
     </row>
+    <row r="43" spans="1:5" ht="20" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E43" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/server/Localizations.xlsx
+++ b/gameData/server/Localizations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="820" windowWidth="25600" windowHeight="16060" tabRatio="210" activeTab="1"/>
+    <workbookView xWindow="1700" yWindow="820" windowWidth="25600" windowHeight="16060" tabRatio="210"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="23" r:id="rId1"/>
@@ -223,22 +223,6 @@
     <t>CityBeAttacked</t>
   </si>
   <si>
-    <t>我方联盟发起了一场联盟会战，战斗将于15分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>%s联盟向我方发起了一场联盟会战，战斗将于15分钟后开始，请做好战斗准备！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方聯盟剛剛發起了一場聯盟會戰，戰鬥將於15分鐘後開始，請做好戰鬥準備！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>%s聯盟向我方發起了一場聯盟會戰，戰鬥將於15分鐘後開始，請做好戰鬥準備！</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>与%s联盟的战斗已经开始！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -395,14 +379,6 @@
   </si>
   <si>
     <t>Your invitation was accepted</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Your Alliance has declared a war, and it will start in 15 minutes, prepare for the battle!</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>%s has declared a war to your Alliance, and it will start in 15 minutes, prepare for the battle!</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -860,12 +836,6 @@
     <t>Félicitations! %s a accepté votre invitation.</t>
   </si>
   <si>
-    <t>Votre alliance a déclaré la guerre et elle débute dans 15 min. Préparez la bataille!</t>
-  </si>
-  <si>
-    <t>%s a déclaré la guerre à votre alliance et elle débute dans 15 min. Préparez la bataille!</t>
-  </si>
-  <si>
     <t>La bataille avec %s commence!</t>
   </si>
   <si>
@@ -959,6 +929,38 @@
   </si>
   <si>
     <t>Votre village est sous attaque!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方聯盟剛剛發起了一場聯盟會戰，戰鬥將於5分鐘後開始，請做好戰鬥準備！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s聯盟向我方發起了一場聯盟會戰，戰鬥將於5分鐘後開始，請做好戰鬥準備！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Votre alliance a déclaré la guerre et elle débute dans 5 min. Préparez la bataille!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s a déclaré la guerre à votre alliance et elle débute dans 5 min. Préparez la bataille!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your Alliance has declared a war, and it will start in 5 minutes, prepare for the battle!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s has declared a war to your Alliance, and it will start in 5 minutes, prepare for the battle!</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方联盟发起了一场联盟会战，战斗将于5分钟后开始，请做好战斗准备！</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s联盟向我方发起了一场联盟会战，战斗将于5分钟后开始，请做好战斗准备！</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2420,7 +2422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2438,16 +2440,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -2456,36 +2458,36 @@
     </row>
     <row r="2" spans="1:20" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -2494,19 +2496,19 @@
     </row>
     <row r="4" spans="1:20" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -2515,19 +2517,19 @@
     </row>
     <row r="5" spans="1:20" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -2536,19 +2538,19 @@
     </row>
     <row r="6" spans="1:20" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -2557,19 +2559,19 @@
     </row>
     <row r="7" spans="1:20" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="D7" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -2578,19 +2580,19 @@
     </row>
     <row r="8" spans="1:20" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -2599,19 +2601,19 @@
     </row>
     <row r="9" spans="1:20" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -2620,19 +2622,19 @@
     </row>
     <row r="10" spans="1:20" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -2683,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2710,7 +2712,7 @@
         <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -2725,13 +2727,13 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20" customHeight="1">
@@ -2742,13 +2744,13 @@
         <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -2763,13 +2765,13 @@
         <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -2784,13 +2786,13 @@
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -2805,13 +2807,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -2826,13 +2828,13 @@
         <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -2847,13 +2849,13 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -2868,13 +2870,13 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -2886,16 +2888,16 @@
         <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="20" customHeight="1">
@@ -2903,16 +2905,16 @@
         <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>238</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>232</v>
       </c>
       <c r="E11" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="20" customHeight="1">
@@ -2920,16 +2922,16 @@
         <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="20" customHeight="1">
@@ -2937,16 +2939,16 @@
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20" customHeight="1">
@@ -2957,13 +2959,13 @@
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20" customHeight="1">
@@ -2974,13 +2976,13 @@
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20" customHeight="1">
@@ -2991,13 +2993,13 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -3008,13 +3010,13 @@
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
@@ -3025,13 +3027,13 @@
         <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
@@ -3042,13 +3044,13 @@
         <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
@@ -3059,13 +3061,13 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
@@ -3073,16 +3075,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -3090,16 +3092,16 @@
         <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1">
@@ -3107,356 +3109,356 @@
         <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E43" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
